--- a/medicine/Enfance/Pierre_Gamarra/Pierre_Gamarra.xlsx
+++ b/medicine/Enfance/Pierre_Gamarra/Pierre_Gamarra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Gamarra est un écrivain français né à Toulouse le 10 juillet 1919 et mort à Argenteuil le 20 mai 2009. Il est  romancier et poète. En tant que critique, son nom se trouve largement associé à la revue Europe, de 1949 à 2009. Ses œuvres, qui abordent pratiquement tous les genres, comprennent également des essais et des pièces de théâtre
 Pierre Gamarra est particulièrement connu à travers son œuvre pour la jeunesse, fréquemment enseignée dans les écoles, ainsi que pour les liens que sa poésie et ses romans entretiennent avec Toulouse, le Languedoc et la France du Sud-Ouest.
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né à Toulouse  en 1919, Pierre Gamarra a des origines basques et languedociennes[1]. Il est d'abord instituteur, puis journaliste[2].
-Pendant la libération de Toulouse, en août 1944, Pierre Gamarra fait paraître Vaincre, journal des FTPF-FFI[3], dans les locaux de la Dépêche du Midi, rue Bayard[a].
- Au lendemain de la Libération, dans cette même ville, il participe, avec un groupe d'anciens résistants, à la création de la Librairie de la Renaissance[4]. Il poursuit son engagement résistant en militant au Parti communiste, auquel il adhère en 1944. De 1944 à 1949, il est journaliste au quotidien Le Patriote du Sud-Ouest[5], dont il est le premier rédacteur en chef[b].
-Il est, à Lausanne en 1948, le lauréat du premier Prix international Charles Veillon, pour son premier roman La Maison de feu[c],[d]. Le jury, présidé par André Chamson, rassemble notamment les écrivains Vercors, Franz Hellens et Louis Guilloux[6],[e]. Le roman est publié la même année, en Suisse par les Éditions de la Baconnière et en France par les Éditions de Minuit. Il évoque le Toulouse des années trente[f].
-En 1949, Pierre Gamarra est sollicité par Jean Cassou, André Chamson et Aragon pour prendre, à Paris, la responsabilité de la rédaction de la revue littéraire Europe[g],[7], sous la direction de Pierre Abraham, auquel il succédera à la tête de la revue[7]. De 1949 à sa mort, en 2009, il tient dans Europe une chronique littéraire, « La Machine à écrire »[h] : il y rend compte de parutions françaises et étrangères[8], et notamment de la littérature des « petits pays », que la revue s’efforce de faire découvrir. Il sera également en tant que critique littéraire un collaborateur régulier de l'hebdomadaire de la CGT, La Vie ouvrière[9].
-Il a été vice-président du PEN club français sous la présidence de Jean Blot (1999-2005) et membre honoraire de l'Académie de Montauban[10].
-Pierre Gamarra a été pendant douze ans conseiller municipal d'Argenteuil, plus particulièrement chargé des affaires culturelles. Il a vécu dans cette ville à partir de 1951[7], après avoir habité deux ans dans le 9e arrondissement de Paris, au 42, rue d'Amsterdam.
-Son urne funéraire a été déposée le 30 mai 2009 au cimetière de Bessens, village du Tarn-et-Garonne où il a longtemps vécu[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né à Toulouse  en 1919, Pierre Gamarra a des origines basques et languedociennes. Il est d'abord instituteur, puis journaliste.
+Pendant la libération de Toulouse, en août 1944, Pierre Gamarra fait paraître Vaincre, journal des FTPF-FFI, dans les locaux de la Dépêche du Midi, rue Bayard[a].
+ Au lendemain de la Libération, dans cette même ville, il participe, avec un groupe d'anciens résistants, à la création de la Librairie de la Renaissance. Il poursuit son engagement résistant en militant au Parti communiste, auquel il adhère en 1944. De 1944 à 1949, il est journaliste au quotidien Le Patriote du Sud-Ouest, dont il est le premier rédacteur en chef[b].
+Il est, à Lausanne en 1948, le lauréat du premier Prix international Charles Veillon, pour son premier roman La Maison de feu[c],[d]. Le jury, présidé par André Chamson, rassemble notamment les écrivains Vercors, Franz Hellens et Louis Guilloux,[e]. Le roman est publié la même année, en Suisse par les Éditions de la Baconnière et en France par les Éditions de Minuit. Il évoque le Toulouse des années trente[f].
+En 1949, Pierre Gamarra est sollicité par Jean Cassou, André Chamson et Aragon pour prendre, à Paris, la responsabilité de la rédaction de la revue littéraire Europe[g] sous la direction de Pierre Abraham, auquel il succédera à la tête de la revue. De 1949 à sa mort, en 2009, il tient dans Europe une chronique littéraire, « La Machine à écrire »[h] : il y rend compte de parutions françaises et étrangères, et notamment de la littérature des « petits pays », que la revue s’efforce de faire découvrir. Il sera également en tant que critique littéraire un collaborateur régulier de l'hebdomadaire de la CGT, La Vie ouvrière.
+Il a été vice-président du PEN club français sous la présidence de Jean Blot (1999-2005) et membre honoraire de l'Académie de Montauban.
+Pierre Gamarra a été pendant douze ans conseiller municipal d'Argenteuil, plus particulièrement chargé des affaires culturelles. Il a vécu dans cette ville à partir de 1951, après avoir habité deux ans dans le 9e arrondissement de Paris, au 42, rue d'Amsterdam.
+Son urne funéraire a été déposée le 30 mai 2009 au cimetière de Bessens, village du Tarn-et-Garonne où il a longtemps vécu.
 </t>
         </is>
       </c>
@@ -550,12 +564,14 @@
           <t>Aperçu de l'œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Gamarra est souvent présenté comme « un écrivain occitan de langue française »[12],[13]. Son œuvre, traduite en plus de vingt langues, compte près de quatre-vingts ouvrages.
-Pierre Gamarra est considéré comme l'un des plus intéressants auteurs français pour la jeunesse[14], que ce soit en prose[15] ou en poésie[16].Ses fables — La Mouche et la Crème, par exemple[17] — et ses poèmes, dont le célèbre Mon cartable, sont particulièrement connus des écoliers[18]. En effet, les enseignants et les manuels de littérature et de français puisent souvent dans son œuvre poétique[19] ; ils y trouvent par exemple des fables, que l'Encyclopedia Britannica place dans la lignée de La Fontaine[20], ou bien des assonances mnémotechniques aux airs de comptine[21]. Cette partie de son travail correspond notamment au désir de communiquer aux jeunes lecteurs le goût de la lecture et des mots[22],[23].Son travail pour la jeunesse se compose également de contes et de romans. Pierre Gamarra est ainsi l'un des auteurs « fétiches » des Éditions la farandole, dont il ouvre presque le catalogue avec La Rose des Karpathes (1955). Ses romans pour la jeunesse parus dans la collection « Mille épisodes », tels le cycle des « Équipiers de la Berlurette » (1957-1961)[24] ou Le Capitaine Printemps (1963), gagnent rapidement un public fidèle qui apprécie ses histoires ancrées dans un réel mâtiné d'aventures[25].Son roman L'Aventure du Serpent à Plumes reçoit le Prix Jeunesse en 1961.
-Plus généralement, dans l'ensemble de son œuvre romanesque, Pierre Gamarra est reconnu pour son art de restituer les couleurs et les atmosphères[26],[27]. En outre, plusieurs de ses romans reposent en partie sur la volonté de créer le suspense : par exemple, ses romans policiers[28], Six colonnes à la une (1966), situé à Toulouse, et L’assassin a le Prix Goncourt (1950)[29], dont l'action se déroule autour de Moissac ; ou encore Le Capitaine Printemps (1963), qui est, selon Marc Soriano, un des « rares mais très beaux livres (de la littérature pour la jeunesse) sur la guerre et la Résistance»[30].En 1955 paraît Le Maître d’école, qui sera l’un de ses romans les plus connus[31],[i] ; c'est l’histoire de Simon Sermet, instituteur laïque dans le Midi languedocien[j].Pierre Gamarra est aussi l'auteur d'une trilogie romanesque sur Toulouse : Les Mystères de Toulouse (1967), L’Or et le Sang (1970) et 72 soleils (1975).En 1973, son roman Les Coqs de minuit (1950), situé dans le Quercy aveyronnais durant la Révolution, est adapté pour la télévision par Édouard Logereau. Le film, en trois épisodes diffusés par FR3, a été tourné aux environs de Najac, avec Claude Brosset dans le rôle principal.Pierre Gamarra a obtenu en 1985 le Grand Prix de la Société des gens de lettres pour le roman Le Fleuve palimpseste[32].
-Son œuvre poétique est également saluée comme étant « un véritable chant d'amour »[2] et a pu être décrite comme suit : « Pleine d'images, de cris, de chants, de rires et de pleurs, son clavier est riche et profondément humain. Poésie foisonnante et colorée (…), qui trouve, pour exprimer la joie de vivre, des vers où l'on perçoit parfois, sourde et cruelle, l'épine de la douleur. »[33]En 2000, le comédien Michael Lonsdale crée un spectacle autour de poèmes de Pierre Gamarra sur l'Espagne[34].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Gamarra est souvent présenté comme « un écrivain occitan de langue française »,. Son œuvre, traduite en plus de vingt langues, compte près de quatre-vingts ouvrages.
+Pierre Gamarra est considéré comme l'un des plus intéressants auteurs français pour la jeunesse, que ce soit en prose ou en poésie.Ses fables — La Mouche et la Crème, par exemple — et ses poèmes, dont le célèbre Mon cartable, sont particulièrement connus des écoliers. En effet, les enseignants et les manuels de littérature et de français puisent souvent dans son œuvre poétique ; ils y trouvent par exemple des fables, que l'Encyclopedia Britannica place dans la lignée de La Fontaine, ou bien des assonances mnémotechniques aux airs de comptine. Cette partie de son travail correspond notamment au désir de communiquer aux jeunes lecteurs le goût de la lecture et des mots,.Son travail pour la jeunesse se compose également de contes et de romans. Pierre Gamarra est ainsi l'un des auteurs « fétiches » des Éditions la farandole, dont il ouvre presque le catalogue avec La Rose des Karpathes (1955). Ses romans pour la jeunesse parus dans la collection « Mille épisodes », tels le cycle des « Équipiers de la Berlurette » (1957-1961) ou Le Capitaine Printemps (1963), gagnent rapidement un public fidèle qui apprécie ses histoires ancrées dans un réel mâtiné d'aventures.Son roman L'Aventure du Serpent à Plumes reçoit le Prix Jeunesse en 1961.
+Plus généralement, dans l'ensemble de son œuvre romanesque, Pierre Gamarra est reconnu pour son art de restituer les couleurs et les atmosphères,. En outre, plusieurs de ses romans reposent en partie sur la volonté de créer le suspense : par exemple, ses romans policiers, Six colonnes à la une (1966), situé à Toulouse, et L’assassin a le Prix Goncourt (1950), dont l'action se déroule autour de Moissac ; ou encore Le Capitaine Printemps (1963), qui est, selon Marc Soriano, un des « rares mais très beaux livres (de la littérature pour la jeunesse) sur la guerre et la Résistance».En 1955 paraît Le Maître d’école, qui sera l’un de ses romans les plus connus,[i] ; c'est l’histoire de Simon Sermet, instituteur laïque dans le Midi languedocien[j].Pierre Gamarra est aussi l'auteur d'une trilogie romanesque sur Toulouse : Les Mystères de Toulouse (1967), L’Or et le Sang (1970) et 72 soleils (1975).En 1973, son roman Les Coqs de minuit (1950), situé dans le Quercy aveyronnais durant la Révolution, est adapté pour la télévision par Édouard Logereau. Le film, en trois épisodes diffusés par FR3, a été tourné aux environs de Najac, avec Claude Brosset dans le rôle principal.Pierre Gamarra a obtenu en 1985 le Grand Prix de la Société des gens de lettres pour le roman Le Fleuve palimpseste.
+Son œuvre poétique est également saluée comme étant « un véritable chant d'amour » et a pu être décrite comme suit : « Pleine d'images, de cris, de chants, de rires et de pleurs, son clavier est riche et profondément humain. Poésie foisonnante et colorée (…), qui trouve, pour exprimer la joie de vivre, des vers où l'on perçoit parfois, sourde et cruelle, l'épine de la douleur. »En 2000, le comédien Michael Lonsdale crée un spectacle autour de poèmes de Pierre Gamarra sur l'Espagne.
 </t>
         </is>
       </c>
@@ -584,13 +600,15 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1943 : Prix de poésie Hélène Vacaresco pour Essais pour une malédiction[35] ;
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1943 : Prix de poésie Hélène Vacaresco pour Essais pour une malédiction ;
 1944 : Prix du Conseil national de la Résistance ;
 1948 : Prix Charles Veillon pour La Maison de feu ;
 1961 : Prix Jeunesse pour L'Aventure du Serpent à plumes ;
-1972 : (international) « Honor List »[36], de l' IBBY, pour La Mandarine et le Mandarin ;
+1972 : (international) « Honor List », de l' IBBY, pour La Mandarine et le Mandarin ;
 1985 : Grand Prix SGDL du Roman.</t>
         </is>
       </c>
@@ -619,10 +637,12 @@
           <t>Hommages et postérité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Pierre Gamarra a été donné à une école à Montauban[37], à un groupe scolaire à Bessens[38] ; à deux rues, l’une à Argenteuil[39]  et l’autre à Montauban[40] ; à une impasse à Boulazac[41] ;  à deux bibliothèques, l'une, depuis 1995, à Argenteuil, et l'autre à Andrest[42].
-Il existe une Association des amis de Pierre Gamarra, qui a publié une anthologie à la veille du centenaire de la naissance de l’écrivain[43] et qui anime le site officiel qui lui est consacré[44].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Pierre Gamarra a été donné à une école à Montauban, à un groupe scolaire à Bessens ; à deux rues, l’une à Argenteuil  et l’autre à Montauban ; à une impasse à Boulazac ;  à deux bibliothèques, l'une, depuis 1995, à Argenteuil, et l'autre à Andrest.
+Il existe une Association des amis de Pierre Gamarra, qui a publié une anthologie à la veille du centenaire de la naissance de l’écrivain et qui anime le site officiel qui lui est consacré.
 </t>
         </is>
       </c>
@@ -653,8 +673,13 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Poésie pour la jeunesse
-La Lune dans ton sac, Amis de Pierre Gamarra (APG), 2018 (s.l.) — Le recueil contient notamment, dans une section « jeunesse », Mon cartable, Le Triangle équilatéral, Est-ce faux, est-ce vrai ? (voir également plus bas en Poésie).
+          <t>Poésie pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Lune dans ton sac, Amis de Pierre Gamarra (APG), 2018 (s.l.) — Le recueil contient notamment, dans une section « jeunesse », Mon cartable, Le Triangle équilatéral, Est-ce faux, est-ce vrai ? (voir également plus bas en Poésie).
 Mon cartable et autres poèmes à réciter, ID-livre, coll. « Pierre Gamarra raconte… », 2006, ill. Bernard Lafont  — Le recueil reprend notamment Mon cartable, La Pendule, La Chanson de la faute d'orthographe[k], Cherchez le Z et Mon école.
  Des mots pour une maman, Éditions ouvrières, coll. « Enfance heureuse », 1984  — Le recueil contient notamment L'Avenir, La Voix de ma mère, Je te souhaite, Un poème pour toi[l] et Le Monde dans mes mains[l].
 Rondes de la jungle et d'ailleurs, Éditions La Farandole (LF), 1980, ill. Tamas Szecsko
@@ -664,18 +689,120 @@
 La Fête des costumes, LF, 1975, ill. Erika Uraï
 Corbeau vole ! Hachette, coll. « Le Vert Paradis », 1974, ill. Yutaka Sugita (ja)
 Des mots pour les animaux, LF no 307, coédité avec les Éditions Corvina, Budapest, 1974, ill. Karoly Reich (hu)
-Chansons de ma façon, LF no 124, 1963, ill. René Moreu  — Le recueil contient notamment La Pendule.
-Recueils de fables
-Salut, Monsieur de la Fontaine : Fables nouvelles, Éditions Art, 2005, 94 p. ill. Frédéric Devienne — Le recueil contient notamment Le Moqueur moqué, ainsi qu’une postface sur l’art de la fable.
-La Mandarine et le Mandarin, LF no 227, 1970, ill. René Moreu  — Le recueil contient notamment Le Cosmonaute et son hôte, Le Lapin et le Latin, La Mouche et la Crème, Le Ski et La Pomme.
-Contes
-Les Vacances de Tonton 36, ID-livre, coll. « Pierre Gamarra raconte… », 2006, ill. Marco Conti Šikić et Francesca Protopapa
-Chantepierre et Gras-gras-gras, LF, 1973, ill. par des enfants des Hautes-Pyrénées et par René Moreu[45]
+Chansons de ma façon, LF no 124, 1963, ill. René Moreu  — Le recueil contient notamment La Pendule.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Recueils de fables</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Salut, Monsieur de la Fontaine : Fables nouvelles, Éditions Art, 2005, 94 p. ill. Frédéric Devienne — Le recueil contient notamment Le Moqueur moqué, ainsi qu’une postface sur l’art de la fable.
+La Mandarine et le Mandarin, LF no 227, 1970, ill. René Moreu  — Le recueil contient notamment Le Cosmonaute et son hôte, Le Lapin et le Latin, La Mouche et la Crème, Le Ski et La Pomme.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Contes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Les Vacances de Tonton 36, ID-livre, coll. « Pierre Gamarra raconte… », 2006, ill. Marco Conti Šikić et Francesca Protopapa
+Chantepierre et Gras-gras-gras, LF, 1973, ill. par des enfants des Hautes-Pyrénées et par René Moreu
 La Tisane arc-en-ciel, LF, 1977, ill. Gerhard Lahr (de)
 Les Mots enchantés, Éditeurs français réunis (EFR), 1952, ill. Zuka
-La Petite Fille et la Colombe, éd. Comité mondial du Congrès des partisans de la paix (Paris), 1950
-Romans et récits pour la jeunesse
-Le Chat Moustache et ses amis de toutes les couleurs, ID-livre[m], coll. « Pierre Gamarra raconte… », 2005, ill. Marco Conti Šikić et Francesca Protopapa — Nouvelle édition, modifiée, de Moustache et ses amis, LF no 292, 1974, ill. Annick Desmier
+La Petite Fille et la Colombe, éd. Comité mondial du Congrès des partisans de la paix (Paris), 1950</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans et récits pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le Chat Moustache et ses amis de toutes les couleurs, ID-livre[m], coll. « Pierre Gamarra raconte… », 2005, ill. Marco Conti Šikić et Francesca Protopapa — Nouvelle édition, modifiée, de Moustache et ses amis, LF no 292, 1974, ill. Annick Desmier
 Les Aventuriers de l'alphabet, Éditions Mango, 2002
 Douze tonnes de diamant, LF coll. « Mille épisodes », 1978
 On a mangé l'alphabet, Bordas coll. « Aux quatre coins du temps », 1978, ill. Georges Lemoine
@@ -690,11 +817,45 @@
 Berlurette contre Tour Eiffel, LF no 100 coll. « Mille épisodes », 1961, (cycle Les Équipiers de la Berlurette, III), ill. Daniel Billon
 Le Trésor de Tricoire, LF no 82 coll. « Mille épisodes », 1959, (cycle Les Équipiers de la Berlurette, II), ill. René Garcia— Réédité précédé de Le Mystère de la Berlurette, Éditions de la Farandole, 1969, ill. René Moreu
 Le Mystère de la Berlurette, LF no 50 coll. « Mille épisodes », 1957, (cycle Les Équipiers de la Berlurette, I), ill. René Garcia — Rééditions La Farandole : 1969, suivi du Trésor de Tricoire, ill. René Moreu ; 1979, ill. Jean Garonnaire
-La Rose des Karpathes, LF no 2, 1955, ill. Mireille Miailhe
-Romans
-L’Empreinte de l'ours, De Borée (Sayat), 2010[46]  (ISBN 9782844949899)
+La Rose des Karpathes, LF no 2, 1955, ill. Mireille Miailhe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>L’Empreinte de l'ours, De Borée (Sayat), 2010  (ISBN 9782844949899)
 Les Coqs de minuit suivi de Rosalie Brousse, De Borée, réédition 2009  (ISBN 9782844949097) — Repris en coll. «Terre de poche» (8 juillet 2016) ; fiche en ligne  (ISBN 978-2-8129-1833-9)
-Le Maître d'école suivi de La Femme de Simon, De Borée, réédition 2008[47]
+Le Maître d'école suivi de La Femme de Simon, De Borée, réédition 2008
 La Victoire de l'ourse, Loubatières (Portet-sur-Garonne), 2005
 Les Révoltés de ventôse, Éditions des Veillées, 1998
 Les Nuits de la Bastille, Messidor, 1988
@@ -705,26 +866,132 @@
 L'Or et le Sang, EFR, 1970
 Les Mystères de Toulouse, EFR, 1967 — Repris dans la Bibliothèque Marabout (Verviers) (1978)
 Solo, EFR, 1964
-Rhapsodie des Pyrénées, EFR, 1963[46]
-La Femme de Simon, EFR, 1962[47]
-Les Jardins d'Allah, EFR, 1961 — Réédition Le Temps des Cerises, 2020[48]
-Le Maître d'école, EFR, 1955[47] — Repris en Folio (Gallimard) (1994)
+Rhapsodie des Pyrénées, EFR, 1963
+La Femme de Simon, EFR, 1962
+Les Jardins d'Allah, EFR, 1961 — Réédition Le Temps des Cerises, 2020
+Le Maître d'école, EFR, 1955 — Repris en Folio (Gallimard) (1994)
 Rosalie Brousse, EFR, 1953
 La Femme et le Fleuve, Éditions de la Baconnière (Neuchâtel), 1951
 Les Lilas de Saint-Lazare, EFR, 1951
-L'assassin a le prix Goncourt, Éditions S.E.P.E coll. « Le Labyrinthe», 1950[49] — Repris par EFR coll. « Énigme autour du monde » (1968) puis chez Messidor/LF (1986)
+L'assassin a le prix Goncourt, Éditions S.E.P.E coll. « Le Labyrinthe», 1950 — Repris par EFR coll. « Énigme autour du monde » (1968) puis chez Messidor/LF (1986)
 Les Enfants du pain noir, EFR, 1950, repris aux Éditions De Borée, coll. « Terre de poche » (2013)  (ISBN 2812908491)
 Les Coqs de minuit, Éditions de la Baconnière, 1950 — Adapté pour l'écran en 1973.
-La Maison de feu, Éditions de la Baconnière/Éditions de Minuit, 1948, frontispice de Géa Augsbourg, Prix international Charles Veillon 1948 — Rééditions EFR, 1969, 1970, 1973 ; Messidor, 1987 ; De Borée coll. «Terre de poche» (2014)  (ISBN 9782812911491), préface de Michel Besnier ; (détail des éditions du livre sur Worldcat)
-Recueils de nouvelles
-Le Village, Éditions Henry (Montreuil) coll. « La Vie, comme elle va », 2012  (ISBN 978-2-36469-027-1) — [Présentation en ligne sur le site de l'éditeur]
+La Maison de feu, Éditions de la Baconnière/Éditions de Minuit, 1948, frontispice de Géa Augsbourg, Prix international Charles Veillon 1948 — Rééditions EFR, 1969, 1970, 1973 ; Messidor, 1987 ; De Borée coll. «Terre de poche» (2014)  (ISBN 9782812911491), préface de Michel Besnier ; (détail des éditions du livre sur Worldcat)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le Village, Éditions Henry (Montreuil) coll. « La Vie, comme elle va », 2012  (ISBN 978-2-36469-027-1) — [Présentation en ligne sur le site de l'éditeur]
 La vie est belle, Messidor, 1991
 Les Amours du potier, EFR, 1957
-Les Mains des hommes, Éditions Connaître (Genève), 1953 ill. Marc Saint-Saëns
-Hors recueil
-Un cadavre de boue et Mange ta soupe, in Le Patriote du Sud-Ouest, 1944, Prix du Conseil national de la Résistance
-Poésie
-La Lune dans ton sac, Amis de Pierre Gamarra (APG), 2018 (s.l.), avant-propos de S. Devienne-Gamarra, ouvrage illustré de documents d’archives (photos, manuscrits), de dessins de l’auteur et de planches de F. Devienne, 126 p. (ISBN 979-10-699-2186-3) — Présentation en ligne
+Les Mains des hommes, Éditions Connaître (Genève), 1953 ill. Marc Saint-Saëns</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Hors recueil</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Un cadavre de boue et Mange ta soupe, in Le Patriote du Sud-Ouest, 1944, Prix du Conseil national de la Résistance</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>La Lune dans ton sac, Amis de Pierre Gamarra (APG), 2018 (s.l.), avant-propos de S. Devienne-Gamarra, ouvrage illustré de documents d’archives (photos, manuscrits), de dessins de l’auteur et de planches de F. Devienne, 126 p. (ISBN 979-10-699-2186-3) — Présentation en ligne
 Mon pays, l'Occitanie, Les Cahiers de la Lomagne (Lavit), 2009, ill. Éléonore Cassaigneau
 Pouchkine, Encres vives (Colomiers), coll. « Encres Blanches », 2004, ill. Frédéric Devienne
 Le Monde irréel, Encres vives, coll. « Encres Blanches », 2004, ill. Frédéric Devienne
@@ -734,25 +1001,203 @@
 Le Sorbier des oiseaux, EFR, coll. « Petite sirène », 1976
 Un chant d'amour, Armand Henneuse (Lyon), 1959
 Chanson de la citadelle d'Arras, Au Colporteur, 1951
-Essais pour une malédiction, chez l'auteur (Toulouse), 1944, Prix Hélène Vacaresco 1943
-Biographies
-Notre ami Jules Verne, Le Temps des Cerises, 2005
+Essais pour une malédiction, chez l'auteur (Toulouse), 1944, Prix Hélène Vacaresco 1943</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Notre ami Jules Verne, Le Temps des Cerises, 2005
 Notre amie George Sand, Le Temps des Cerises, 2004
-L'Ami Victor Hugo, Le Temps des Cerises, 2001  — Nouvelle édition, modifiée, de La Vie prodigieuse de Victor Hugo, Messidor, 1985
-Biographies romancées
-Vie et prodiges du grand amiral Zheng He, Éditions Mazarine, 2000
+L'Ami Victor Hugo, Le Temps des Cerises, 2001  — Nouvelle édition, modifiée, de La Vie prodigieuse de Victor Hugo, Messidor, 1985</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Biographies romancées</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Vie et prodiges du grand amiral Zheng He, Éditions Mazarine, 2000
 Vasco Núñez de Balboa, découvreur de l'Océan du sud, Le Temps des Cerises, 1994
-La Vie fabuleuse de Cristóbal Colón, Messidor, 1992
-Essais
-Histoire de la laïcité, ID-livre Jeunesse, coll. « Pierre Gamarra raconte… », 2005
+La Vie fabuleuse de Cristóbal Colón, Messidor, 1992</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Histoire de la laïcité, ID-livre Jeunesse, coll. « Pierre Gamarra raconte… », 2005
 L’éducation civique, c'est quoi aujourd'hui ? (avec Bernard Épin), Éditions La Farandole, 1985 ill. Daniel Maja, postface d'Albert Jacquard
 Mes lectures pour tous, Temps Actuels, 1980
 La lecture, pour quoi faire ? Casterman, 1974
-Ombre et lumière d’Espagne : Chronique d'un reportage (pl), EFR, 1961
-Articles
-Collaborations à Europe : accès en ligne, sur Google Scholar
-Préfaces d’ouvrages
-Anne Talvaz, Ce que nous sommes, L'Act Mem, 2010[n]
+Ombre et lumière d’Espagne : Chronique d'un reportage (pl), EFR, 1961</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Collaborations à Europe : accès en ligne, sur Google Scholar</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Préfaces d’ouvrages</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Anne Talvaz, Ce que nous sommes, L'Act Mem, 2010[n]
 La Mère et l'Enfant, les plus beaux poèmes, choix et préface de Pierre Gamarra, Temps Actuels, 1985
 Poèmes choisis de Paul Éluard, choisis et présentés par Pierre Gamarra et Rouben Mélik, Temps Actuels, 1982
 Œuvres complètes de Louis Pergaud, Club Diderot du Livre, 1970 — Préface reprise pour La Guerre des boutons, Éditions Messidor, 1991
@@ -761,11 +1206,83 @@
 Jean-Richard Bloch : …et Compagnie, introduction par Romain Rolland, Club des Amis du livre progressiste, 1963
 Louis Pergaud, De Goupil à Margot, Club du Livre Progressiste, 1960, notice bibliographique par Eugène Chatot
 Pages bulgares : Christo Botev, Ivan Vazov, Eline Péline et al., Éditions Seghers, 1956
-Guy de Maupassant, Contes et Nouvelles, Éditions Connaître, Genève, 1952
-Arts de la scène
-Classement selon la date de création [o]
-Théâtre pour la jeunesse
-Opéra de la soupe, 1998, théâtre de Pont-Audemer, musique Rudolf Schmidt
+Guy de Maupassant, Contes et Nouvelles, Éditions Connaître, Genève, 1952</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Arts de la scène</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Classement selon la date de création [o]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Arts de la scène</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Théâtre pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Opéra de la soupe, 1998, théâtre de Pont-Audemer, musique Rudolf Schmidt
 La Rose des Karpathes, version pour la scène du conte du même titre
 Le Pont sur la Clarinette (comédie en quatre tableaux), 1990 : Odyssud (Blagnac) par la troupe Fabula Théâtre, mise en scène Michel Coulet
 La Rose tsigane, 1983 : École-théâtre d'Andrest et Foyer de Juillan
@@ -774,18 +1291,169 @@
 Vingt-mille lieues sous les mers, adaptation pour la scène, d'après Jules Verne, 1971
 Billy the Kid (comédie-western), 1969 : TGP, mise en scène Daniel Bazilier
 La Classe enchantée, 1969 : salle Gaveau (Paris), musique Rudolf Schmidt
-Le Roi Mirliton (comédie féerique en trois actes), 1967 : théâtre Mossoviet (Moscou) sous le titre Karol Fanfaron, mise en scène Nina Mikhoels (en)—(BNF 39462752)
-Théâtre et dramatiques radio
-Bonheur and Co (comédie-bouffe en un acte), 1956, création à Tôkyô
+Le Roi Mirliton (comédie féerique en trois actes), 1967 : théâtre Mossoviet (Moscou) sous le titre Karol Fanfaron, mise en scène Nina Mikhoels (en)—(BNF 39462752)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Arts de la scène</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Théâtre et dramatiques radio</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bonheur and Co (comédie-bouffe en un acte), 1956, création à Tôkyô
 La Fortune des Mora (trois actes), 1956, diffusion à la Radiodiffusion-télévision française
-La Dame de la place Masséna, pièce radiophonique
-Poésie mise en scène
-Passion de l'Espagne[34], interprétation par Michael Lonsdale, musique de Stephan Leach interprétée par le trio Polycordes, 2000
-Traductions et adaptations
-Traductions
-Nicolas Guillén : Avec ce cœur, je vis[p], traduit de l'espagnol (avec une préface), EFR coll. « La Petite Sirène », 1976
-Adaptations en français
-Gunilla Bergström: Les Fariboles de Bolla, traduit du suédois par Marianne Hoang, ill. Gunilla Bergström, LF, 1981
+La Dame de la place Masséna, pièce radiophonique</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Arts de la scène</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Poésie mise en scène</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Passion de l'Espagne, interprétation par Michael Lonsdale, musique de Stephan Leach interprétée par le trio Polycordes, 2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nicolas Guillén : Avec ce cœur, je vis[p], traduit de l'espagnol (avec une préface), EFR coll. « La Petite Sirène », 1976</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Traductions et adaptations</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Adaptations en français</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Gunilla Bergström: Les Fariboles de Bolla, traduit du suédois par Marianne Hoang, ill. Gunilla Bergström, LF, 1981
 Agnia Barto : Les Jouets, adapté du russe, LF, 1979 (Livre dépliant avec des images de L. Maiorova)
 Yevi : Au diable la guerre, traduit de l'hébreu par Ilan Halévi, préface de Amos Kenan (he), EFR, coll. « La Petite Sirène », 1971
 Samouil Marchak : Le Souriceau pas sot (LF, 1972) et Le Chat qui se cacha (LF, 1964), adaptés du russe
@@ -798,9 +1466,43 @@
 Le Trésor de l'Homme : Contes et images du Viêt Nam, LF, 1971 ; adaptations de B. Tanaka, Pierre Gamarra et M. Gansel
 Anthologie de la poésie vietnamienne : Poèmes du patrimoine classique (depuis le XIIIe siècle), puis poèmes du Nord-Viêt Nam et du Sud-Viêt Nam, EFR, 1969 ; avant-propos de Che Lan Vien (vi); traduction/adaptation par Pierre Gamarra, Jacques Gaucheron, Madeleine Riffaud, Armand Monjo, Georges Boudarel, Juliette Darle, Maurice Bruzeau et Henri Bassis
 Le Destin de la Géorgie, poèmes de Nikoloz Baratachvili (édition bilingue), EFR, 1968, traduction du géorgien par Gaston Boitchidzé et Serge Tsouladzé ; adaptations par Max-Pol Fouchet, Pierre Gamarra, Jacques Gaucheron et Guillevic
-Cinq poètes polonais : Władysław Broniewski, Konstanty Ildefons Gałczinski [Gałczyński], Jarosław Iwaszkiewicz, Leopold Staff, Julian Tuwim, Seghers, coll.« Autour du Monde » no 33, 1956, 88 p. —Traductions de Charles Dobzynski, Pierre Gamarra, François Kerel, René Lacote et Pierre Seghers — Préface de Charles Vildrac
-Participations à des ouvrages collectifs
-« Le Tigre de Mont-de-Marsan», en préface à L'Histoire du Tigre, ouvrage créé par des enfants de Mont-de-Marsan d'après le personnage du récit de Pierre Gamarra, le Chat Moustache, illustrations par les enfants et par Francesca Protopapa, 2008
+Cinq poètes polonais : Władysław Broniewski, Konstanty Ildefons Gałczinski [Gałczyński], Jarosław Iwaszkiewicz, Leopold Staff, Julian Tuwim, Seghers, coll.« Autour du Monde » no 33, 1956, 88 p. —Traductions de Charles Dobzynski, Pierre Gamarra, François Kerel, René Lacote et Pierre Seghers — Préface de Charles Vildrac</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Participations à des ouvrages collectifs</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>« Le Tigre de Mont-de-Marsan», en préface à L'Histoire du Tigre, ouvrage créé par des enfants de Mont-de-Marsan d'après le personnage du récit de Pierre Gamarra, le Chat Moustache, illustrations par les enfants et par Francesca Protopapa, 2008
 Le Victor Hugo illustré, catalogue de l'exposition édité par le Musée de l'Histoire vivante, 2002 ; textes de Pierre Gamarra, Christian Gattinoni, Bertrand Tillier et Didier Daeninckx
 13, rue Carença, 31000 Toulouse, roman collectif, Éditions du Ricochet, 2000
 « Je t'aime » in Plumes de paix : Vingt-sept créateurs de livres de jeunesse déclarent la guerre à la guerre, Messidor/La Farandole, 1991
@@ -811,8 +1513,43 @@
 Edeltraut, la petite fiancée du vent, roman collectif sous la direction de James Krüss, sur une histoire de Z.K. Slabý (cs). Publié uniquement en tchèque et en allemand[q], 1971
 Le Chat orange, roman collectif sous la direction de Z.K. Slabý. Publié en tchèque[r], 1968
 « L'Homme » in Chants pour le Vietnam : 80 poètes de 28 pays, EFR, 1967, p. 56-57  — Dédié au poète Nguyen Din Thi (vi)
-« Ballade des droits civiques » in Guirlande d’Aragon privé de ses droits civiques, Tristan Tzara, Paul Éluard et al.[s], Éditions Réclame, Nanterre, 28 octobre 1949, ill. André Fougeron
-Poèmes dans des anthologies
+« Ballade des droits civiques » in Guirlande d’Aragon privé de ses droits civiques, Tristan Tzara, Paul Éluard et al.[s], Éditions Réclame, Nanterre, 28 octobre 1949, ill. André Fougeron</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Poèmes dans des anthologies</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquer (sauf en version mobile) pour ouvrir/réduire le détail des parutions
 Bonne fête ma mère et une traduction de l’espagnol, Haute fille de canne et de coquelicot de Nicolás Guillén, in 101 poèmes sur les femmes, Le Temps des cerises, 2005
 HLM le soir  in Les Poètes et la ville, Le Cherche midi, 2000
@@ -837,7 +1574,43 @@
 Comme une goutte de sang in Poèmes d’aujourd’hui pour les enfants de maintenant, anthologie de Jacques Charpentreau, Éditions ouvrières, 1972
 Rime troisième pour le 14 avril in Journal d'une poésie nationale (Poèmes réunis par Louis Aragon), Les Écrivains réunis/Henneuse, Lyon, 1954
 Nuit et Mots in Quarante poètes : 1942, Premier Cahier de la Renaissance française, Confluences, Lyon, 1942
-Poèmes dans des revues
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Poèmes dans des revues</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Cliquer (sauf en version mobile) pour ouvrir/réduire le détail des parutions
 Nuit et Cris du silence in Le Moulin de Poésie no 31, 2005, ill. F. Devienne
 Souvenir d’enfance et Le Plus Jeune des Cerisiers in Le Moulin de Poésie no 29, 2004, ill. F. Devienne
@@ -862,40 +1635,113 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pierre_Gamarra</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Filmographie, discographie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Adaptations pour l'écran
-Les Coqs de minuit[50], film en trois épisodes, réalisé par Edouard Logereau, 1973, avec Claude Brosset, Jacques Dhery, Alain Mottet, Micheline Bourday, Fred Personne, Muse Dalbray, Nicole Desailly, Sébastien Floche, Louis Arbessier
-Participations
-La Terre fleurira, film de Henri Aisner, 1954 (1 h 03)[51]
-Henri Barbusse (Série Les Hommes véritables), film de Jean Lods, 1955 (20 min) : texte du commentaire[52]
-Poèmes mis en musique
-On peut le dire avec une chanson[u] (musique : Lionel Cazaux) 1947
-Claude Vinci : Est-ce faux ou est-ce vrai ? (musique : Joël Holmès) sur l'album Demain-Octobre, CBS, 1967[53]
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Adaptations pour l'écran</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Les Coqs de minuit, film en trois épisodes, réalisé par Edouard Logereau, 1973, avec Claude Brosset, Jacques Dhery, Alain Mottet, Micheline Bourday, Fred Personne, Muse Dalbray, Nicole Desailly, Sébastien Floche, Louis Arbessier</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Filmographie, discographie</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Participations</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>La Terre fleurira, film de Henri Aisner, 1954 (1 h 03)
+Henri Barbusse (Série Les Hommes véritables), film de Jean Lods, 1955 (20 min) : texte du commentaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pierre_Gamarra</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Filmographie, discographie</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Poèmes mis en musique</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>On peut le dire avec une chanson[u] (musique : Lionel Cazaux) 1947
+Claude Vinci : Est-ce faux ou est-ce vrai ? (musique : Joël Holmès) sur l'album Demain-Octobre, CBS, 1967
 Francesca Solleville : L'instituteur part pour le front (musique : Jean-Paul Roseau) sur l'album Le Visage de l’homme, Le Chant du Monde LDX 74550, 1974
 Compagnie René Bourdet : La Ronde des escargots (musique : Stéphane Velinsky) sur l'album Drôles de poèmes pour enfants sages, Macadam music, réédition 1978[v]
 Calin Calinou : Berceuse Blues et La Berceuse du Blé sur l'album Berceuses et chansons tendres, production Arc-en-Ciel, 1989
